--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4789.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4789.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4789</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hamza Tahir</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>17/08/2019</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>18/08/2019</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4365</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>20/08/2019</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4366</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4381</t>
+          <t>4381</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -688,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>14/12/2019</t>
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4384</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4386</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -788,7 +849,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>19/05/2021</t>
@@ -796,7 +856,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4461</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -836,7 +896,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>25/09/2021</t>
@@ -844,7 +903,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4510</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -884,7 +943,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>28/09/2021</t>
@@ -892,7 +950,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -932,7 +990,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>29/09/2021</t>
@@ -940,7 +997,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4513</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -980,7 +1037,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>02/10/2021</t>
@@ -988,7 +1044,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4515</t>
+          <t>4515</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1028,7 +1084,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>09/04/2022</t>
@@ -1036,7 +1091,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4569</t>
+          <t>4569</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1088,7 +1143,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4570</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1128,7 +1183,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>13/04/2022</t>
@@ -1136,7 +1190,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4572</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1176,7 +1230,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>15/04/2022</t>
@@ -1184,7 +1237,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4573</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1236,7 +1289,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4575</t>
+          <t>4575</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1276,7 +1329,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>29/05/2022</t>
@@ -1284,7 +1336,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4576</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1324,7 +1376,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>31/05/2022</t>
@@ -1332,7 +1383,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4578</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1372,7 +1423,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>10/07/2022</t>
@@ -1380,7 +1430,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4604</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1432,7 +1482,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4610</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1472,7 +1522,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>14/07/2022</t>
@@ -1480,7 +1529,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4612</t>
+          <t>4612</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1520,7 +1569,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>17/07/2022</t>
@@ -1528,7 +1576,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4617</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1580,7 +1628,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1632,7 +1680,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4629</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1672,7 +1720,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>14/08/2022</t>
@@ -1680,7 +1727,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1720,7 +1767,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>17/08/2022</t>
@@ -1728,7 +1774,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4635</t>
+          <t>4635</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1768,7 +1814,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>01/12/2022</t>
@@ -1776,7 +1821,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4677</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1816,7 +1861,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>04/12/2022</t>
@@ -1824,7 +1868,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4681</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1876,7 +1920,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4680</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1916,7 +1960,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>15/02/2023</t>
@@ -1924,7 +1967,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4702</t>
+          <t>4702</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1964,7 +2007,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>17/02/2023</t>
@@ -1972,7 +2014,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4703</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2011,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2033,7 +2075,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2070,7 +2112,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2107,7 +2149,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4365</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2144,7 +2186,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4366</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2181,7 +2223,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4381</t>
+          <t>4381</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2218,7 +2260,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4384</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2255,7 +2297,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4386</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2292,7 +2334,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4461</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2329,7 +2371,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4510</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2366,7 +2408,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2403,7 +2445,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4513</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2440,7 +2482,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4569</t>
+          <t>4569</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2477,7 +2519,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4570</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2514,7 +2556,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4572</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2551,7 +2593,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4573</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2588,7 +2630,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4575</t>
+          <t>4575</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2625,7 +2667,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4576</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2662,7 +2704,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4578</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2699,7 +2741,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4604</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2736,7 +2778,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4610</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2773,7 +2815,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4612</t>
+          <t>4612</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2810,7 +2852,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4617</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2847,7 +2889,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2884,7 +2926,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4629</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2921,7 +2963,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2958,7 +3000,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4635</t>
+          <t>4635</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2995,7 +3037,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4677</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3032,7 +3074,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4681</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3069,7 +3111,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4680</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3106,7 +3148,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4702</t>
+          <t>4702</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3143,7 +3185,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4703</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3171,6 +3213,429 @@
           <t>0/11</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4569</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4570</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4572</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4573</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.86%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.63%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4617</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4702</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4703</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4789.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4789.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3274,9 +3275,6 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3302,7 +3300,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3318,9 +3315,6 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3333,15 +3327,351 @@
           <t>4573</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.86%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.63%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4617</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4702</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4703</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4569</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4570</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4572</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4573</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3349,15 +3679,14 @@
           <t>4575</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3367,17 +3696,12 @@
           <t>4576</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>10</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3385,15 +3709,14 @@
           <t>4578</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3403,27 +3726,14 @@
           <t>4604</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>11</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.86%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3433,29 +3743,12 @@
           <t>4610</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.63%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3463,23 +3756,14 @@
           <t>4612</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>11</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3489,15 +3773,14 @@
           <t>4617</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -3507,13 +3790,14 @@
           <t>4625</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3523,29 +3807,12 @@
           <t>4629</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.48%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3553,15 +3820,14 @@
           <t>4632</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3573,9 +3839,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3583,11 +3846,12 @@
           <t>4677</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3595,11 +3859,12 @@
           <t>4681</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3607,11 +3872,12 @@
           <t>4680</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3619,11 +3885,12 @@
           <t>4702</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3631,11 +3898,12 @@
           <t>4703</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4789.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4789.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>17/08/2019</t>
@@ -605,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>18/08/2019</t>
@@ -652,6 +652,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>20/08/2019</t>
@@ -751,6 +752,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>14/12/2019</t>
@@ -850,6 +852,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>19/05/2021</t>
@@ -897,6 +900,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>25/09/2021</t>
@@ -944,6 +948,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>28/09/2021</t>
@@ -991,6 +996,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>29/09/2021</t>
@@ -1038,6 +1044,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>02/10/2021</t>
@@ -1085,6 +1092,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>09/04/2022</t>
@@ -1184,6 +1192,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>13/04/2022</t>
@@ -1231,6 +1240,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>15/04/2022</t>
@@ -1330,6 +1340,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>29/05/2022</t>
@@ -1377,6 +1388,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>31/05/2022</t>
@@ -1424,6 +1436,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>10/07/2022</t>
@@ -1523,6 +1536,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>14/07/2022</t>
@@ -1570,6 +1584,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>17/07/2022</t>
@@ -1721,6 +1736,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>14/08/2022</t>
@@ -1768,6 +1784,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>17/08/2022</t>
@@ -1815,6 +1832,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>01/12/2022</t>
@@ -1862,6 +1880,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>04/12/2022</t>
@@ -1961,6 +1980,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>15/02/2023</t>
@@ -2008,6 +2028,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>17/02/2023</t>
@@ -3218,694 +3239,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4569</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4570</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4572</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4573</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4575</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4578</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.86%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4610</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.63%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4612</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4617</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.48%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4635</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4677</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4681</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4702</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4703</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4569</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4570</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4572</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4573</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4575</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4578</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4610</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4612</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4617</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4635</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4677</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4681</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4702</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4703</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>